--- a/analysis/health_impact_model/slopes.xlsx
+++ b/analysis/health_impact_model/slopes.xlsx
@@ -385,10 +385,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01655382080562498</v>
+        <v>1.655382080562498</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.00734130859375</v>
+        <v>-0.734130859375</v>
       </c>
     </row>
     <row r="3">
@@ -398,10 +398,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0526251220703125</v>
+        <v>5.26251220703125</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.03839755249023438</v>
+        <v>-3.839755249023438</v>
       </c>
     </row>
     <row r="4">
@@ -411,10 +411,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08748516845703125</v>
+        <v>8.748516845703126</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2791408386230469</v>
+        <v>-27.91408386230469</v>
       </c>
     </row>
     <row r="5">
@@ -424,10 +424,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1060191650390625</v>
+        <v>10.60191650390625</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01059228515625</v>
+        <v>-1.059228515625</v>
       </c>
     </row>
     <row r="6">
@@ -437,10 +437,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1217939147949219</v>
+        <v>12.17939147949219</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0980880126953125</v>
+        <v>-9.808801269531251</v>
       </c>
     </row>
     <row r="7">
@@ -450,10 +450,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06937451171875</v>
+        <v>6.937451171875001</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2157166442871094</v>
+        <v>-21.57166442871094</v>
       </c>
     </row>
     <row r="8">
@@ -463,10 +463,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4541329040527341</v>
+        <v>45.41329040527341</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.65617172241211</v>
+        <v>-65.61717224121098</v>
       </c>
     </row>
   </sheetData>
